--- a/data/trans_orig/IP05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF95D447-1452-484A-A866-DFBC09F7C03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{100373F5-87CF-4A05-9095-745F012BBA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F828165F-05B1-439F-8CF4-1CBDB3D8D600}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{324B2F9B-A00C-49EA-9CB7-90BC604AC7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="619">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,1495 +77,1486 @@
     <t>22,23%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2015 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>3,88%</t>
@@ -1574,22 +1565,22 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>7,7%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>8,17%</t>
+    <t>7,37%</t>
   </si>
   <si>
     <t>1,89%</t>
@@ -1598,7 +1589,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -1607,316 +1598,304 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758AC4ED-4330-45AA-87BF-198B8C95F66D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED003EED-532C-4D6C-86A7-D6675AEB80C8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3697,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5C378D-38D0-4108-ADE6-9240C31D24A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A76758E-9139-4B08-8C0F-608ADC588979}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3854,10 +3833,10 @@
         <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3851,13 @@
         <v>8640</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3887,13 +3866,13 @@
         <v>11955</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -3902,13 +3881,13 @@
         <v>20595</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3902,13 @@
         <v>7937</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3938,13 +3917,13 @@
         <v>6057</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3953,13 +3932,13 @@
         <v>13994</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4006,13 @@
         <v>41278</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -4042,7 +4021,7 @@
         <v>39252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>212</v>
@@ -4129,13 +4108,13 @@
         <v>37658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4144,13 +4123,13 @@
         <v>36155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4159,13 +4138,13 @@
         <v>73813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4212,13 @@
         <v>81942</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -4248,13 +4227,13 @@
         <v>83935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M12" s="7">
         <v>255</v>
@@ -4263,13 +4242,13 @@
         <v>165877</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4263,13 @@
         <v>105463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -4299,13 +4278,13 @@
         <v>82890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>278</v>
@@ -4314,13 +4293,13 @@
         <v>188353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4314,13 @@
         <v>36430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -4350,13 +4329,13 @@
         <v>39533</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -4365,13 +4344,13 @@
         <v>75964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,7 +4418,7 @@
         <v>42501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>262</v>
@@ -4469,13 +4448,13 @@
         <v>90671</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4469,13 @@
         <v>89312</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4505,13 +4484,13 @@
         <v>72077</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -4520,13 +4499,13 @@
         <v>161389</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4520,13 @@
         <v>34779</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -4556,13 +4535,13 @@
         <v>35129</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>109</v>
@@ -4571,13 +4550,13 @@
         <v>69907</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4624,13 @@
         <v>54373</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -4660,13 +4639,13 @@
         <v>60761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -4675,13 +4654,13 @@
         <v>115134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4675,13 @@
         <v>95361</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -4711,13 +4690,13 @@
         <v>91914</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>250</v>
@@ -4726,13 +4705,13 @@
         <v>187275</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4726,13 @@
         <v>58662</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4762,13 +4741,13 @@
         <v>56067</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>154</v>
@@ -4777,13 +4756,13 @@
         <v>114729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4830,13 @@
         <v>228972</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>349</v>
@@ -4866,13 +4845,13 @@
         <v>236479</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
         <v>680</v>
@@ -4881,13 +4860,13 @@
         <v>465452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4881,13 @@
         <v>349068</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>429</v>
@@ -4917,13 +4896,13 @@
         <v>300414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>924</v>
@@ -4932,13 +4911,13 @@
         <v>649482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4932,13 @@
         <v>175467</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -4968,13 +4947,13 @@
         <v>172940</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>493</v>
@@ -4983,13 +4962,13 @@
         <v>348407</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF18C7F6-E5AB-4405-BADE-CAB4230E1CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE327BD-E530-45C1-88B4-860393F8C965}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5083,7 +5062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5190,13 +5169,13 @@
         <v>5730</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5205,13 +5184,13 @@
         <v>8753</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5220,13 +5199,13 @@
         <v>14483</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5220,13 @@
         <v>7281</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5256,13 +5235,13 @@
         <v>7244</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5271,13 +5250,13 @@
         <v>14526</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5271,13 @@
         <v>12562</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5307,13 +5286,13 @@
         <v>6530</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5322,13 +5301,13 @@
         <v>19092</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5375,13 @@
         <v>44615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -5411,13 +5390,13 @@
         <v>45286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>126</v>
@@ -5426,13 +5405,13 @@
         <v>89901</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5426,13 @@
         <v>36202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -5462,13 +5441,13 @@
         <v>29695</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>91</v>
@@ -5477,13 +5456,13 @@
         <v>65897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5477,13 @@
         <v>41007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -5513,13 +5492,13 @@
         <v>36199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -5528,13 +5507,13 @@
         <v>77207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5581,13 @@
         <v>95239</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>136</v>
@@ -5617,13 +5596,13 @@
         <v>82785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>278</v>
@@ -5632,13 +5611,13 @@
         <v>178024</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5632,13 @@
         <v>85493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -5668,13 +5647,13 @@
         <v>81286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -5683,13 +5662,13 @@
         <v>166779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5683,13 @@
         <v>43628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -5719,13 +5698,13 @@
         <v>42632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5734,13 +5713,13 @@
         <v>86259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5787,13 @@
         <v>51337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5823,13 +5802,13 @@
         <v>51168</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -5838,13 +5817,13 @@
         <v>102505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5838,13 @@
         <v>74963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5874,13 +5853,13 @@
         <v>71463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>224</v>
@@ -5889,13 +5868,13 @@
         <v>146426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5889,13 @@
         <v>40373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -5925,13 +5904,13 @@
         <v>33366</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>437</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -5940,13 +5919,13 @@
         <v>73740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +5993,13 @@
         <v>78307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>114</v>
@@ -6029,13 +6008,13 @@
         <v>82258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>446</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>222</v>
@@ -6044,13 +6023,13 @@
         <v>160566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6044,13 @@
         <v>88051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>123</v>
@@ -6080,13 +6059,13 @@
         <v>92305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>297</v>
+        <v>449</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="M21" s="7">
         <v>249</v>
@@ -6095,13 +6074,13 @@
         <v>180357</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6095,13 @@
         <v>39377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -6131,13 +6110,13 @@
         <v>30965</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -6146,13 +6125,13 @@
         <v>70342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6199,13 @@
         <v>275228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>250</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>414</v>
@@ -6235,13 +6214,13 @@
         <v>270250</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>803</v>
@@ -6250,13 +6229,13 @@
         <v>545478</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6250,13 @@
         <v>291990</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>416</v>
@@ -6286,13 +6265,13 @@
         <v>281994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M25" s="7">
         <v>835</v>
@@ -6301,13 +6280,13 @@
         <v>573984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6301,13 @@
         <v>176948</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>228</v>
@@ -6337,13 +6316,13 @@
         <v>149692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>484</v>
@@ -6352,13 +6331,13 @@
         <v>326640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C3D58C-E497-4769-B4C5-75BABEC1AC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD860E4-1994-4535-9C94-916ACFE9F597}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6452,7 +6431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6559,10 +6538,10 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>40</v>
@@ -6574,10 +6553,10 @@
         <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>40</v>
@@ -6589,10 +6568,10 @@
         <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>40</v>
@@ -6610,13 +6589,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6625,13 +6604,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6640,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6640,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6676,13 +6655,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6691,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6744,13 @@
         <v>107517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -6780,13 +6759,13 @@
         <v>97901</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
@@ -6795,13 +6774,13 @@
         <v>205417</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6795,13 @@
         <v>4522</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6831,13 +6810,13 @@
         <v>4033</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -6846,13 +6825,13 @@
         <v>8555</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6846,13 @@
         <v>2031</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6882,13 +6861,13 @@
         <v>1961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6897,13 +6876,13 @@
         <v>3991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6950,13 @@
         <v>214136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H12" s="7">
         <v>234</v>
@@ -6986,13 +6965,13 @@
         <v>159855</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M12" s="7">
         <v>528</v>
@@ -7001,13 +6980,13 @@
         <v>373991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7001,13 @@
         <v>22484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -7037,13 +7016,13 @@
         <v>16976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -7052,13 +7031,13 @@
         <v>39460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7052,13 @@
         <v>13566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -7088,13 +7067,13 @@
         <v>15521</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -7103,13 +7082,13 @@
         <v>29087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7156,13 @@
         <v>123202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -7192,13 +7171,13 @@
         <v>115097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>322</v>
@@ -7207,13 +7186,13 @@
         <v>238299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7207,13 @@
         <v>35127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7243,13 +7222,13 @@
         <v>41533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -7258,13 +7237,13 @@
         <v>76660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7258,13 @@
         <v>14880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -7294,13 +7273,13 @@
         <v>12104</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -7309,13 +7288,13 @@
         <v>26984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7362,13 @@
         <v>113966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -7398,13 +7377,13 @@
         <v>116471</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -7413,13 +7392,13 @@
         <v>230436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7413,13 @@
         <v>33666</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>583</v>
+        <v>64</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -7449,13 +7428,13 @@
         <v>32695</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -7464,13 +7443,13 @@
         <v>66361</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7464,13 @@
         <v>26481</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -7500,13 +7479,13 @@
         <v>21607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -7515,13 +7494,13 @@
         <v>48088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>598</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7568,13 @@
         <v>571520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>753</v>
@@ -7604,13 +7583,13 @@
         <v>506110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="M24" s="7">
         <v>1518</v>
@@ -7619,13 +7598,13 @@
         <v>1077630</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7619,13 @@
         <v>95799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
@@ -7655,13 +7634,13 @@
         <v>95237</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>247</v>
@@ -7670,13 +7649,13 @@
         <v>191036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7670,13 @@
         <v>56957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H26" s="7">
         <v>73</v>
@@ -7706,13 +7685,13 @@
         <v>51193</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M26" s="7">
         <v>152</v>
@@ -7721,13 +7700,13 @@
         <v>108150</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP05A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100373F5-87CF-4A05-9095-745F012BBA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C57BACC-F445-4149-84A5-AF89B3CE4D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{324B2F9B-A00C-49EA-9CB7-90BC604AC7C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AC6B2129-41F5-4579-8E58-3A476FD56F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="546">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1834 +68,1615 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
 </sst>
 </file>
@@ -2307,8 +2088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED003EED-532C-4D6C-86A7-D6675AEB80C8}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C5F6B-A7D8-43FA-96FD-E397AB5F81D4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2425,10 +2206,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>5656</v>
+        <v>23053</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2440,10 +2221,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>3346</v>
+        <v>24580</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2455,10 +2236,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>9002</v>
+        <v>47633</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2476,10 +2257,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>16033</v>
+        <v>79778</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2491,10 +2272,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>13097</v>
+        <v>87379</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2506,10 +2287,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="N5" s="7">
-        <v>29130</v>
+        <v>167157</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2527,10 +2308,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>3755</v>
+        <v>35895</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2542,10 +2323,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I6" s="7">
-        <v>6281</v>
+        <v>39774</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2557,10 +2338,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="N6" s="7">
-        <v>10036</v>
+        <v>75668</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2578,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2593,10 +2374,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>151732</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2608,10 +2389,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="N7" s="7">
-        <v>48168</v>
+        <v>290458</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2631,10 +2412,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>18924</v>
+        <v>47333</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2646,10 +2427,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>19707</v>
+        <v>63909</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2661,10 +2442,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="N8" s="7">
-        <v>38631</v>
+        <v>111241</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2682,10 +2463,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="D9" s="7">
-        <v>71346</v>
+        <v>102643</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2697,10 +2478,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>66681</v>
+        <v>103206</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2712,10 +2493,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="N9" s="7">
-        <v>138027</v>
+        <v>205849</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2733,10 +2514,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>36018</v>
+        <v>44007</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2748,10 +2529,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>29614</v>
+        <v>44347</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2763,10 +2544,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>65632</v>
+        <v>88354</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2784,10 +2565,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7">
-        <v>126288</v>
+        <v>193983</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2799,10 +2580,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>116002</v>
+        <v>211462</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2814,10 +2595,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>365</v>
+        <v>631</v>
       </c>
       <c r="N11" s="7">
-        <v>242290</v>
+        <v>405445</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2837,10 +2618,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7">
-        <v>63909</v>
+        <v>49044</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2852,10 +2633,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>47332</v>
+        <v>48965</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2867,10 +2648,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="N12" s="7">
-        <v>111241</v>
+        <v>98009</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2888,10 +2669,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="D13" s="7">
-        <v>103206</v>
+        <v>70463</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2903,10 +2684,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7">
-        <v>102642</v>
+        <v>76853</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2918,10 +2699,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="N13" s="7">
-        <v>205849</v>
+        <v>147316</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2939,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>44347</v>
+        <v>17861</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2954,10 +2735,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>44007</v>
+        <v>23839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2969,10 +2750,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="N14" s="7">
-        <v>88354</v>
+        <v>41700</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2990,10 +2771,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>211462</v>
+        <v>137369</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3005,10 +2786,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>193982</v>
+        <v>149657</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3020,10 +2801,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>631</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>405445</v>
+        <v>287026</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3043,10 +2824,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>48965</v>
+        <v>83211</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -3058,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>49044</v>
+        <v>82163</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -3073,10 +2854,10 @@
         <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="N16" s="7">
-        <v>98009</v>
+        <v>165374</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -3094,10 +2875,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <v>76853</v>
+        <v>92220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -3109,10 +2890,10 @@
         <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>70463</v>
+        <v>93272</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -3124,10 +2905,10 @@
         <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="N17" s="7">
-        <v>147316</v>
+        <v>185492</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -3145,10 +2926,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>23839</v>
+        <v>33884</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -3160,10 +2941,10 @@
         <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>17861</v>
+        <v>32390</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -3175,10 +2956,10 @@
         <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N18" s="7">
-        <v>41700</v>
+        <v>66273</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -3196,10 +2977,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D19" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3211,10 +2992,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="I19" s="7">
-        <v>137369</v>
+        <v>207824</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3226,10 +3007,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="N19" s="7">
-        <v>287026</v>
+        <v>417139</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3243,55 +3024,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>123</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>82163</v>
+        <v>202641</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>331</v>
+      </c>
+      <c r="I20" s="7">
+        <v>219616</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>110</v>
-      </c>
-      <c r="I20" s="7">
-        <v>83211</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>630</v>
+      </c>
+      <c r="N20" s="7">
+        <v>422257</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="7">
-        <v>233</v>
-      </c>
-      <c r="N20" s="7">
-        <v>165374</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,49 +3081,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>518</v>
+      </c>
+      <c r="D21" s="7">
+        <v>345105</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="7">
-        <v>93272</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>539</v>
+      </c>
+      <c r="I21" s="7">
+        <v>360710</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="7">
-        <v>120</v>
-      </c>
-      <c r="I21" s="7">
-        <v>92220</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>1057</v>
+      </c>
+      <c r="N21" s="7">
+        <v>705815</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="7">
-        <v>256</v>
-      </c>
-      <c r="N21" s="7">
-        <v>185492</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,49 +3132,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7">
-        <v>32390</v>
+        <v>131647</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>213</v>
+      </c>
+      <c r="I22" s="7">
+        <v>140349</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="7">
-        <v>44</v>
-      </c>
-      <c r="I22" s="7">
-        <v>33884</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>411</v>
+      </c>
+      <c r="N22" s="7">
+        <v>271996</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M22" s="7">
-        <v>91</v>
-      </c>
-      <c r="N22" s="7">
-        <v>66273</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>306</v>
+        <v>1015</v>
       </c>
       <c r="D23" s="7">
-        <v>207824</v>
+        <v>679393</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3417,10 +3198,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>274</v>
+        <v>1083</v>
       </c>
       <c r="I23" s="7">
-        <v>209315</v>
+        <v>720675</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3432,10 +3213,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>580</v>
+        <v>2098</v>
       </c>
       <c r="N23" s="7">
-        <v>417139</v>
+        <v>1400068</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3448,222 +3229,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>331</v>
-      </c>
-      <c r="D24" s="7">
-        <v>219616</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="7">
-        <v>299</v>
-      </c>
-      <c r="I24" s="7">
-        <v>202641</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M24" s="7">
-        <v>630</v>
-      </c>
-      <c r="N24" s="7">
-        <v>422257</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>539</v>
-      </c>
-      <c r="D25" s="7">
-        <v>360710</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="7">
-        <v>518</v>
-      </c>
-      <c r="I25" s="7">
-        <v>345105</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1057</v>
-      </c>
-      <c r="N25" s="7">
-        <v>705815</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>213</v>
-      </c>
-      <c r="D26" s="7">
-        <v>140349</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="7">
-        <v>198</v>
-      </c>
-      <c r="I26" s="7">
-        <v>131647</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="7">
-        <v>411</v>
-      </c>
-      <c r="N26" s="7">
-        <v>271996</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D27" s="7">
-        <v>720675</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I27" s="7">
-        <v>679393</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1400068</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>180</v>
+      <c r="A24" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3676,8 +3250,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A76758E-9139-4B08-8C0F-608ADC588979}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AAF09D-AE4C-41B6-9209-41B0EB954C97}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3693,7 +3267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3794,49 +3368,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7">
-        <v>8878</v>
+        <v>43613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>4361</v>
+        <v>50156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="N4" s="7">
-        <v>13239</v>
+        <v>93769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +3419,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>8640</v>
+        <v>53532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>11955</v>
+        <v>58932</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="N5" s="7">
-        <v>20595</v>
+        <v>112465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3470,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>7937</v>
+        <v>42211</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I6" s="7">
-        <v>6057</v>
+        <v>45596</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N6" s="7">
-        <v>13994</v>
+        <v>87807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +3521,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3962,10 +3536,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3977,10 +3551,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4000,49 +3574,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
-        <v>41278</v>
+        <v>83935</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="I8" s="7">
-        <v>39252</v>
+        <v>81942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="N8" s="7">
-        <v>80530</v>
+        <v>165877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +3625,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>50293</v>
+        <v>82890</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I9" s="7">
-        <v>41577</v>
+        <v>105463</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="N9" s="7">
-        <v>91870</v>
+        <v>188353</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,49 +3676,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>37658</v>
+        <v>39533</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>36155</v>
+        <v>36430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>73813</v>
+        <v>75964</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,10 +3727,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4168,10 +3742,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="I11" s="7">
-        <v>116984</v>
+        <v>223835</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4183,10 +3757,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="N11" s="7">
-        <v>246213</v>
+        <v>430193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4206,49 +3780,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7">
-        <v>81942</v>
+        <v>48170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="H12" s="7">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="I12" s="7">
-        <v>83935</v>
+        <v>42501</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="N12" s="7">
-        <v>165877</v>
+        <v>90671</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,49 +3831,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D13" s="7">
-        <v>105463</v>
+        <v>72077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I13" s="7">
-        <v>82890</v>
+        <v>89312</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="7">
         <v>247</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M13" s="7">
-        <v>278</v>
-      </c>
       <c r="N13" s="7">
-        <v>188353</v>
+        <v>161389</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +3882,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>36430</v>
+        <v>35129</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>39533</v>
+        <v>34779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14" s="7">
-        <v>75964</v>
+        <v>69907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7">
-        <v>223835</v>
+        <v>155376</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4374,10 +3948,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4389,10 +3963,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="N15" s="7">
-        <v>430193</v>
+        <v>321968</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4412,49 +3986,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>42501</v>
+        <v>60761</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>48170</v>
+        <v>54373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="N16" s="7">
-        <v>90671</v>
+        <v>115134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4037,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <v>89312</v>
+        <v>91914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="I17" s="7">
-        <v>72077</v>
+        <v>95361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
+        <v>250</v>
+      </c>
+      <c r="N17" s="7">
+        <v>187275</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="N17" s="7">
-        <v>161389</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +4088,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7">
-        <v>34779</v>
+        <v>56067</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I18" s="7">
-        <v>35129</v>
+        <v>58662</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="N18" s="7">
-        <v>69907</v>
+        <v>114729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4139,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>166592</v>
+        <v>208742</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4580,10 +4154,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="I19" s="7">
-        <v>155376</v>
+        <v>208396</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4595,10 +4169,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="N19" s="7">
-        <v>321968</v>
+        <v>417138</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4612,55 +4186,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="D20" s="7">
-        <v>54373</v>
+        <v>236479</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="I20" s="7">
-        <v>60761</v>
+        <v>228972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
-        <v>152</v>
+        <v>680</v>
       </c>
       <c r="N20" s="7">
-        <v>115134</v>
+        <v>465452</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,49 +4243,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>130</v>
+        <v>429</v>
       </c>
       <c r="D21" s="7">
-        <v>95361</v>
+        <v>300414</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="I21" s="7">
-        <v>91914</v>
+        <v>349068</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="M21" s="7">
-        <v>250</v>
+        <v>924</v>
       </c>
       <c r="N21" s="7">
-        <v>187275</v>
+        <v>649482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4294,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="D22" s="7">
-        <v>58662</v>
+        <v>172940</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="I22" s="7">
-        <v>56067</v>
+        <v>175467</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="N22" s="7">
-        <v>114729</v>
+        <v>348407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,10 +4345,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>283</v>
+        <v>1023</v>
       </c>
       <c r="D23" s="7">
-        <v>208396</v>
+        <v>709833</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4786,10 +4360,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>273</v>
+        <v>1074</v>
       </c>
       <c r="I23" s="7">
-        <v>208742</v>
+        <v>753507</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4801,10 +4375,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>556</v>
+        <v>2097</v>
       </c>
       <c r="N23" s="7">
-        <v>417138</v>
+        <v>1463340</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4817,222 +4391,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>331</v>
-      </c>
-      <c r="D24" s="7">
-        <v>228972</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H24" s="7">
-        <v>349</v>
-      </c>
-      <c r="I24" s="7">
-        <v>236479</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M24" s="7">
-        <v>680</v>
-      </c>
-      <c r="N24" s="7">
-        <v>465452</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>495</v>
-      </c>
-      <c r="D25" s="7">
-        <v>349068</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H25" s="7">
-        <v>429</v>
-      </c>
-      <c r="I25" s="7">
-        <v>300414</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M25" s="7">
-        <v>924</v>
-      </c>
-      <c r="N25" s="7">
-        <v>649482</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>248</v>
-      </c>
-      <c r="D26" s="7">
-        <v>175467</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H26" s="7">
-        <v>245</v>
-      </c>
-      <c r="I26" s="7">
-        <v>172940</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M26" s="7">
-        <v>493</v>
-      </c>
-      <c r="N26" s="7">
-        <v>348407</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D27" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I27" s="7">
-        <v>709833</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1463340</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>180</v>
+      <c r="A24" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5045,8 +4412,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE327BD-E530-45C1-88B4-860393F8C965}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE9E96E-56D7-4EB7-9DF0-C74355F4403F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5062,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5163,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>5730</v>
+        <v>54039</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>8753</v>
+        <v>50345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="N4" s="7">
-        <v>14483</v>
+        <v>104384</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>7281</v>
+        <v>36939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7">
-        <v>7244</v>
+        <v>43483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N5" s="7">
-        <v>14526</v>
+        <v>80422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +4632,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D6" s="7">
-        <v>12562</v>
+        <v>42729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>6530</v>
+        <v>53570</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="N6" s="7">
-        <v>19092</v>
+        <v>96299</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,10 +4683,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5331,10 +4698,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>147398</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5346,10 +4713,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281105</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5369,49 +4736,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>44615</v>
+        <v>82785</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>45286</v>
+        <v>95239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="N8" s="7">
-        <v>89901</v>
+        <v>178024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,49 +4787,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D9" s="7">
-        <v>36202</v>
+        <v>81286</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I9" s="7">
-        <v>29695</v>
+        <v>85493</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="N9" s="7">
-        <v>65897</v>
+        <v>166779</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,49 +4838,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>41007</v>
+        <v>42632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>36199</v>
+        <v>43628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="N10" s="7">
-        <v>77207</v>
+        <v>86259</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,10 +4889,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>121824</v>
+        <v>206703</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5537,10 +4904,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5552,10 +4919,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>327</v>
+        <v>665</v>
       </c>
       <c r="N11" s="7">
-        <v>233004</v>
+        <v>431062</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5575,49 +4942,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>95239</v>
+        <v>51168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="H12" s="7">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>82785</v>
+        <v>51337</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="N12" s="7">
-        <v>178024</v>
+        <v>102505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,49 +4993,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7">
-        <v>85493</v>
+        <v>71463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="I13" s="7">
-        <v>81286</v>
+        <v>74963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="N13" s="7">
-        <v>166779</v>
+        <v>146426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,49 +5044,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>43628</v>
+        <v>33366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>42632</v>
+        <v>40373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N14" s="7">
-        <v>86259</v>
+        <v>73740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,10 +5095,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5743,10 +5110,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7">
-        <v>206703</v>
+        <v>166673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5758,10 +5125,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>665</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>431062</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5781,49 +5148,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>51337</v>
+        <v>82258</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>51168</v>
+        <v>78307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="N16" s="7">
-        <v>102505</v>
+        <v>160566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,49 +5199,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D17" s="7">
-        <v>74963</v>
+        <v>92305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I17" s="7">
-        <v>71463</v>
+        <v>88051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="N17" s="7">
-        <v>146426</v>
+        <v>180357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,49 +5250,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>40373</v>
+        <v>30965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>33366</v>
+        <v>39377</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="N18" s="7">
-        <v>73740</v>
+        <v>70342</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,10 +5301,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D19" s="7">
-        <v>166673</v>
+        <v>205529</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5949,10 +5316,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5964,10 +5331,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N19" s="7">
-        <v>322670</v>
+        <v>411265</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5981,55 +5348,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="D20" s="7">
-        <v>78307</v>
+        <v>270250</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="I20" s="7">
-        <v>82258</v>
+        <v>275228</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
-        <v>222</v>
+        <v>803</v>
       </c>
       <c r="N20" s="7">
-        <v>160566</v>
+        <v>545478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,49 +5405,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>416</v>
       </c>
       <c r="D21" s="7">
-        <v>88051</v>
+        <v>281994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>189</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="H21" s="7">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="I21" s="7">
-        <v>92305</v>
+        <v>291990</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="M21" s="7">
-        <v>249</v>
+        <v>835</v>
       </c>
       <c r="N21" s="7">
-        <v>180357</v>
+        <v>573984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,49 +5456,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="D22" s="7">
-        <v>39377</v>
+        <v>149692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
+        <v>256</v>
+      </c>
+      <c r="I22" s="7">
+        <v>176948</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="7">
+        <v>484</v>
+      </c>
+      <c r="N22" s="7">
+        <v>326640</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="I22" s="7">
-        <v>30965</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="M22" s="7">
-        <v>98</v>
-      </c>
-      <c r="N22" s="7">
-        <v>70342</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,10 +5507,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>290</v>
+        <v>1058</v>
       </c>
       <c r="D23" s="7">
-        <v>205736</v>
+        <v>701936</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6155,10 +5522,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>279</v>
+        <v>1064</v>
       </c>
       <c r="I23" s="7">
-        <v>205529</v>
+        <v>744166</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6170,10 +5537,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>569</v>
+        <v>2122</v>
       </c>
       <c r="N23" s="7">
-        <v>411265</v>
+        <v>1446102</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6186,222 +5553,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>389</v>
-      </c>
-      <c r="D24" s="7">
-        <v>275228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H24" s="7">
-        <v>414</v>
-      </c>
-      <c r="I24" s="7">
-        <v>270250</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M24" s="7">
-        <v>803</v>
-      </c>
-      <c r="N24" s="7">
-        <v>545478</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>419</v>
-      </c>
-      <c r="D25" s="7">
-        <v>291990</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H25" s="7">
-        <v>416</v>
-      </c>
-      <c r="I25" s="7">
-        <v>281994</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="M25" s="7">
-        <v>835</v>
-      </c>
-      <c r="N25" s="7">
-        <v>573984</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>256</v>
-      </c>
-      <c r="D26" s="7">
-        <v>176948</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H26" s="7">
-        <v>228</v>
-      </c>
-      <c r="I26" s="7">
-        <v>149692</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="M26" s="7">
-        <v>484</v>
-      </c>
-      <c r="N26" s="7">
-        <v>326640</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D27" s="7">
-        <v>744166</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I27" s="7">
-        <v>701936</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2122</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1446102</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>180</v>
+      <c r="A24" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6414,8 +5574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD860E4-1994-4535-9C94-916ACFE9F597}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548CC4E5-3C9A-414F-8A7B-012656CBC3FB}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6431,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6532,49 +5692,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>111271</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>133018</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>349</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>244289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,49 +5743,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,49 +5794,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2087</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4092</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,10 +5845,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6700,10 +5860,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>139887</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6715,10 +5875,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257168</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6738,49 +5898,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="D8" s="7">
-        <v>107517</v>
+        <v>154826</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="I8" s="7">
-        <v>97901</v>
+        <v>218332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="M8" s="7">
-        <v>302</v>
+        <v>528</v>
       </c>
       <c r="N8" s="7">
-        <v>205417</v>
+        <v>373159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,49 +5949,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>4522</v>
+        <v>20326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I9" s="7">
-        <v>4033</v>
+        <v>22771</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>8555</v>
+        <v>43097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,49 +6000,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>2031</v>
+        <v>15361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>1961</v>
+        <v>13931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>3991</v>
+        <v>29292</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,10 +6051,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114069</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6906,10 +6066,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6921,10 +6081,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>319</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>217964</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6944,49 +6104,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>294</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7">
-        <v>214136</v>
+        <v>117903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="I12" s="7">
-        <v>159855</v>
+        <v>130973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
-        <v>528</v>
+        <v>322</v>
       </c>
       <c r="N12" s="7">
-        <v>373991</v>
+        <v>248875</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,49 +6155,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>22484</v>
+        <v>60602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>476</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>477</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>16976</v>
+        <v>37965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>478</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>39460</v>
+        <v>98566</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,49 +6206,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>13566</v>
+        <v>11897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>15521</v>
+        <v>16349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>29087</v>
+        <v>28245</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,10 +6257,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7112,10 +6272,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7127,10 +6287,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7150,49 +6310,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D16" s="7">
-        <v>123202</v>
+        <v>113047</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I16" s="7">
-        <v>115097</v>
+        <v>117943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N16" s="7">
-        <v>238299</v>
+        <v>230990</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,49 +6361,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>35127</v>
+        <v>31691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>41533</v>
+        <v>34850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>76660</v>
+        <v>66542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,49 +6412,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>14880</v>
+        <v>21807</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>12104</v>
+        <v>27502</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="M18" s="7">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N18" s="7">
-        <v>26984</v>
+        <v>49309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,10 +6463,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>166545</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7318,10 +6478,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I19" s="7">
-        <v>168735</v>
+        <v>180295</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7333,10 +6493,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="N19" s="7">
-        <v>341943</v>
+        <v>346840</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7350,55 +6510,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>153</v>
+        <v>753</v>
       </c>
       <c r="D20" s="7">
-        <v>113966</v>
+        <v>497046</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="H20" s="7">
-        <v>166</v>
+        <v>765</v>
       </c>
       <c r="I20" s="7">
-        <v>116471</v>
+        <v>600265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="M20" s="7">
-        <v>319</v>
+        <v>1518</v>
       </c>
       <c r="N20" s="7">
-        <v>230436</v>
+        <v>1097312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,49 +6567,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>33666</v>
+        <v>116623</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>528</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="H21" s="7">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="I21" s="7">
-        <v>32695</v>
+        <v>100369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="M21" s="7">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="N21" s="7">
-        <v>66361</v>
+        <v>216992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,49 +6618,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>26481</v>
+        <v>51069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>21607</v>
+        <v>59869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>542</v>
       </c>
       <c r="M22" s="7">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>48088</v>
+        <v>110938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>43</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,10 +6669,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>237</v>
+        <v>942</v>
       </c>
       <c r="D23" s="7">
-        <v>174114</v>
+        <v>664738</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7524,10 +6684,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>239</v>
+        <v>975</v>
       </c>
       <c r="I23" s="7">
-        <v>170772</v>
+        <v>760503</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7539,10 +6699,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>476</v>
+        <v>1917</v>
       </c>
       <c r="N23" s="7">
-        <v>344885</v>
+        <v>1425242</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7555,222 +6715,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>765</v>
-      </c>
-      <c r="D24" s="7">
-        <v>571520</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="H24" s="7">
-        <v>753</v>
-      </c>
-      <c r="I24" s="7">
-        <v>506110</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1518</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1077630</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>131</v>
-      </c>
-      <c r="D25" s="7">
-        <v>95799</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="H25" s="7">
-        <v>116</v>
-      </c>
-      <c r="I25" s="7">
-        <v>95237</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="M25" s="7">
-        <v>247</v>
-      </c>
-      <c r="N25" s="7">
-        <v>191036</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>79</v>
-      </c>
-      <c r="D26" s="7">
-        <v>56957</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H26" s="7">
-        <v>73</v>
-      </c>
-      <c r="I26" s="7">
-        <v>51193</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="M26" s="7">
+      <c r="A24" t="s">
         <v>152</v>
       </c>
-      <c r="N26" s="7">
-        <v>108150</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>975</v>
-      </c>
-      <c r="D27" s="7">
-        <v>724276</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>942</v>
-      </c>
-      <c r="I27" s="7">
-        <v>652540</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1376816</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
